--- a/medicine/Psychotrope/Ulysse_Gayon/Ulysse_Gayon.xlsx
+++ b/medicine/Psychotrope/Ulysse_Gayon/Ulysse_Gayon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulysse Gayon est un biochimiste et agronome français né à Bouëx (Charente) le 8 mai 1845 et mort à Bordeaux le 11 avril 1929.
 Il est principalement connu comme étant à l'origine de la bouillie bordelaise, fongicide très utilisé pour le traitement de la vigne. 
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un ancien militaire devenu paysan, Ulysse Gayon est reçu au concours de l'École normale supérieure et en sort agrégé de sciences physiques en 1871[1]. Élève de Louis Pasteur à cette même école, il obtient en 1875 sa thèse de doctorat, sur l'Altération spontanée des œufs. À la suite de cette thèse, l'administration des Douanes le charge d'organiser un laboratoire de contrôle régional à Bordeaux. Il le dirige pendant quarante-quatre ans.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un ancien militaire devenu paysan, Ulysse Gayon est reçu au concours de l'École normale supérieure et en sort agrégé de sciences physiques en 1871. Élève de Louis Pasteur à cette même école, il obtient en 1875 sa thèse de doctorat, sur l'Altération spontanée des œufs. À la suite de cette thèse, l'administration des Douanes le charge d'organiser un laboratoire de contrôle régional à Bordeaux. Il le dirige pendant quarante-quatre ans.
 En 1878, il est nommé maître de conférence à la faculté de sciences de Bordeaux, à la chaire de Chimie. Il deviendra Professeur de l'Université en 1881. Sa carrière universitaire est marquée par la création de deux écoles : l'École de chimie appliquée à l’industrie et à l’agriculture (dont vient l'actuelle l'École nationale supérieure de chimie, de biologie et de physique) et la Faculté d'Œnologie de Bordeaux.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Distinctions honorifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Grande médaille d'or de la Société nationale d'agriculture (1883)
 Membre de l'Académie des sciences de Paris (1897)</t>
@@ -575,7 +591,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des rues de Bordeaux, d'Angoulême et de Bouëx portent son nom.
 </t>
@@ -606,10 +624,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1875 : Recherches sur les altérations spontanées des œufs, Annales scientifiques de l'École normale supérieure Sér. 2, 4 ;
-1886 : Recherches sur la réduction des nitrates par les infiniment petits. Fulltext (p. 348): [1]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1875 : Recherches sur les altérations spontanées des œufs, Annales scientifiques de l'École normale supérieure Sér. 2, 4 ;
+1886 : Recherches sur la réduction des nitrates par les infiniment petits. Fulltext (p. 348): </t>
         </is>
       </c>
     </row>
